--- a/NCHLStats/bin/Debug/QuarterStats/2017-18 Joueurs dans le système 1er Quart.xlsx
+++ b/NCHLStats/bin/Debug/QuarterStats/2017-18 Joueurs dans le système 1er Quart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="675" yWindow="-60" windowWidth="18315" windowHeight="9780" activeTab="8"/>
+    <workbookView xWindow="675" yWindow="-60" windowWidth="18315" windowHeight="9780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Valeurs" sheetId="7" r:id="rId1"/>
@@ -12723,7 +12723,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12875,8 +12875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U885"/>
   <sheetViews>
-    <sheetView topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="A250" sqref="A250"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40853,7 +40853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC196"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -74978,7 +74978,7 @@
   </sheetPr>
   <dimension ref="Q4:W71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
